--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CubeA-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CubeA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.98552112901943</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.6227848949555937</v>
+      </c>
+      <c r="D16">
+        <v>1.642271734218754</v>
+      </c>
+      <c r="E16">
+        <v>0.9957675914803306</v>
+      </c>
+      <c r="F16">
+        <v>1.038766456686441</v>
+      </c>
+      <c r="G16">
+        <v>0.6227848949555937</v>
+      </c>
+      <c r="H16">
+        <v>1.642271734218754</v>
+      </c>
+      <c r="I16">
+        <v>0.8786467324694143</v>
+      </c>
+      <c r="J16">
+        <v>1.096356904225475</v>
+      </c>
+      <c r="K16">
+        <v>0.8079618251480029</v>
+      </c>
+      <c r="L16">
+        <v>1.313100730709999</v>
+      </c>
+      <c r="M16">
+        <v>0.6227848949555937</v>
+      </c>
+      <c r="N16">
+        <v>1.319019662849542</v>
+      </c>
+      <c r="O16">
+        <v>1.07489766933528</v>
+      </c>
+      <c r="P16">
+        <v>1.049457108736751</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.6227848949555937</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.2534440000000007</v>
+        <v>0.6227848949555937</v>
       </c>
       <c r="D10">
-        <v>2.749816</v>
+        <v>1.642271734218754</v>
       </c>
       <c r="E10">
-        <v>0.674744000000002</v>
+        <v>0.9957675914803306</v>
       </c>
       <c r="F10">
-        <v>1.199907999999998</v>
+        <v>1.038766456686441</v>
       </c>
       <c r="G10">
-        <v>0.2534440000000007</v>
+        <v>0.6227848949555937</v>
       </c>
       <c r="H10">
-        <v>2.749816</v>
+        <v>1.642271734218754</v>
       </c>
       <c r="I10">
-        <v>0.5443440000000006</v>
+        <v>0.8786467324694143</v>
       </c>
       <c r="J10">
-        <v>1.172487999999999</v>
+        <v>1.096356904225475</v>
       </c>
       <c r="K10">
-        <v>0.6028480000000008</v>
+        <v>0.8079618251480029</v>
       </c>
       <c r="L10">
-        <v>1.835328</v>
+        <v>1.313100730709999</v>
       </c>
       <c r="M10">
-        <v>0.2534440000000007</v>
+        <v>0.6227848949555937</v>
       </c>
       <c r="N10">
-        <v>1.712280000000001</v>
+        <v>1.319019662849542</v>
       </c>
       <c r="O10">
-        <v>1.219478000000001</v>
+        <v>1.07489766933528</v>
       </c>
       <c r="P10">
-        <v>1.129115</v>
+        <v>1.049457108736751</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.09</v>
+        <v>0.3600790543225978</v>
       </c>
       <c r="D11">
-        <v>3.946549999999997</v>
+        <v>1.767111600009647</v>
       </c>
       <c r="E11">
-        <v>0.21</v>
+        <v>1.012622898325506</v>
       </c>
       <c r="F11">
-        <v>1.357924999999998</v>
+        <v>1.099829005326928</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.3600790543225978</v>
       </c>
       <c r="H11">
-        <v>3.946549999999997</v>
+        <v>1.767111600009647</v>
       </c>
       <c r="I11">
-        <v>0.18</v>
+        <v>0.7937228199381174</v>
       </c>
       <c r="J11">
-        <v>1.140825000000002</v>
+        <v>1.210826260802969</v>
       </c>
       <c r="K11">
-        <v>0.4726125000000001</v>
+        <v>0.717340141892671</v>
       </c>
       <c r="L11">
-        <v>2.3912375</v>
+        <v>1.45189596567979</v>
       </c>
       <c r="M11">
-        <v>0.09</v>
+        <v>0.3600790543225978</v>
       </c>
       <c r="N11">
-        <v>2.078274999999999</v>
+        <v>1.389867249167577</v>
       </c>
       <c r="O11">
-        <v>1.401118749999999</v>
+        <v>1.05991063949617</v>
       </c>
       <c r="P11">
-        <v>1.22364375</v>
+        <v>1.051678468287278</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4657044584448002</v>
+        <v>0.3607694040805268</v>
       </c>
       <c r="D12">
-        <v>2.708871959961602</v>
+        <v>1.761274277957431</v>
       </c>
       <c r="E12">
-        <v>0.5394446202880024</v>
+        <v>1.014568866459522</v>
       </c>
       <c r="F12">
-        <v>1.204937627545601</v>
+        <v>1.099295198555054</v>
       </c>
       <c r="G12">
-        <v>0.4657044584448002</v>
+        <v>0.3607694040805268</v>
       </c>
       <c r="H12">
-        <v>2.708871959961602</v>
+        <v>1.761274277957431</v>
       </c>
       <c r="I12">
-        <v>0.5251461179392007</v>
+        <v>0.7952796273448358</v>
       </c>
       <c r="J12">
-        <v>1.088493566976001</v>
+        <v>1.211014073450761</v>
       </c>
       <c r="K12">
-        <v>0.6896519734271995</v>
+        <v>0.7179832736677212</v>
       </c>
       <c r="L12">
-        <v>1.810644038246401</v>
+        <v>1.449298465756375</v>
       </c>
       <c r="M12">
-        <v>0.4657125677056004</v>
+        <v>0.3607694040805268</v>
       </c>
       <c r="N12">
-        <v>1.624158290124802</v>
+        <v>1.387921572208476</v>
       </c>
       <c r="O12">
-        <v>1.229739666560001</v>
+        <v>1.058976936763133</v>
       </c>
       <c r="P12">
-        <v>1.129111795353601</v>
+        <v>1.051185398409028</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9939683121314244</v>
+        <v>0.3601178070351354</v>
       </c>
       <c r="D13">
-        <v>0.9970575997167247</v>
+        <v>1.765817296154552</v>
       </c>
       <c r="E13">
-        <v>1.002331220851862</v>
+        <v>1.012869496351902</v>
       </c>
       <c r="F13">
-        <v>1.001797119982369</v>
+        <v>1.09974142525831</v>
       </c>
       <c r="G13">
-        <v>0.9939683121314244</v>
+        <v>0.3601178070351354</v>
       </c>
       <c r="H13">
-        <v>0.9970575997167247</v>
+        <v>1.765817296154552</v>
       </c>
       <c r="I13">
-        <v>1.001043178177309</v>
+        <v>0.7939996429032554</v>
       </c>
       <c r="J13">
-        <v>0.996215760568386</v>
+        <v>1.210940371898105</v>
       </c>
       <c r="K13">
-        <v>0.9975222838530294</v>
+        <v>0.7175099652109702</v>
       </c>
       <c r="L13">
-        <v>1.003967955634248</v>
+        <v>1.451517369238453</v>
       </c>
       <c r="M13">
-        <v>0.9939844032356659</v>
+        <v>0.3601178070351354</v>
       </c>
       <c r="N13">
-        <v>0.9996944102842931</v>
+        <v>1.389343396253227</v>
       </c>
       <c r="O13">
-        <v>0.9987885631705948</v>
+        <v>1.059636506199975</v>
       </c>
       <c r="P13">
-        <v>0.9992379288644189</v>
+        <v>1.051564171756335</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.05369033779274</v>
+        <v>0.2534440000000007</v>
       </c>
       <c r="D14">
-        <v>0.9275172338740534</v>
+        <v>2.749816</v>
       </c>
       <c r="E14">
-        <v>1.006049078624849</v>
+        <v>0.674744000000002</v>
       </c>
       <c r="F14">
-        <v>0.9905109708452648</v>
+        <v>1.199907999999998</v>
       </c>
       <c r="G14">
-        <v>1.05369033779274</v>
+        <v>0.2534440000000007</v>
       </c>
       <c r="H14">
-        <v>0.9275172338740534</v>
+        <v>2.749816</v>
       </c>
       <c r="I14">
-        <v>1.023590840506376</v>
+        <v>0.5443440000000006</v>
       </c>
       <c r="J14">
-        <v>0.9789766272337154</v>
+        <v>1.172487999999999</v>
       </c>
       <c r="K14">
-        <v>1.021520222524638</v>
+        <v>0.6028480000000008</v>
       </c>
       <c r="L14">
-        <v>0.955555993863079</v>
+        <v>1.835328</v>
       </c>
       <c r="M14">
-        <v>1.05369033779274</v>
+        <v>0.2534440000000007</v>
       </c>
       <c r="N14">
-        <v>0.9667831562494512</v>
+        <v>1.712280000000001</v>
       </c>
       <c r="O14">
-        <v>0.9944419052842268</v>
+        <v>1.219478000000001</v>
       </c>
       <c r="P14">
-        <v>0.9946764131580894</v>
+        <v>1.129115</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.165874857223994</v>
+        <v>0.09</v>
       </c>
       <c r="D15">
-        <v>0.7800033960536521</v>
+        <v>3.946549999999997</v>
       </c>
       <c r="E15">
-        <v>1.07044871080576</v>
+        <v>0.21</v>
       </c>
       <c r="F15">
-        <v>0.9326359487981899</v>
+        <v>1.357924999999998</v>
       </c>
       <c r="G15">
-        <v>1.165874857223994</v>
+        <v>0.09</v>
       </c>
       <c r="H15">
-        <v>0.7800033960536521</v>
+        <v>3.946549999999997</v>
       </c>
       <c r="I15">
-        <v>1.100768323752033</v>
+        <v>0.18</v>
       </c>
       <c r="J15">
-        <v>0.9524202677733807</v>
+        <v>1.140825000000002</v>
       </c>
       <c r="K15">
-        <v>1.045340977701562</v>
+        <v>0.4726125000000001</v>
       </c>
       <c r="L15">
-        <v>0.8366765500468677</v>
+        <v>2.3912375</v>
       </c>
       <c r="M15">
-        <v>1.165907208812522</v>
+        <v>0.09</v>
       </c>
       <c r="N15">
-        <v>0.925226053429706</v>
+        <v>2.078274999999999</v>
       </c>
       <c r="O15">
-        <v>0.987240728220399</v>
+        <v>1.401118749999999</v>
       </c>
       <c r="P15">
-        <v>0.98552112901943</v>
+        <v>1.22364375</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6227848949555937</v>
+        <v>0.4657044584448002</v>
       </c>
       <c r="D16">
-        <v>1.642271734218754</v>
+        <v>2.708871959961602</v>
       </c>
       <c r="E16">
-        <v>0.9957675914803306</v>
+        <v>0.5394446202880024</v>
       </c>
       <c r="F16">
-        <v>1.038766456686441</v>
+        <v>1.204937627545601</v>
       </c>
       <c r="G16">
-        <v>0.6227848949555937</v>
+        <v>0.4657044584448002</v>
       </c>
       <c r="H16">
-        <v>1.642271734218754</v>
+        <v>2.708871959961602</v>
       </c>
       <c r="I16">
-        <v>0.8786467324694143</v>
+        <v>0.5251461179392007</v>
       </c>
       <c r="J16">
-        <v>1.096356904225475</v>
+        <v>1.088493566976001</v>
       </c>
       <c r="K16">
-        <v>0.8079618251480029</v>
+        <v>0.6896519734271995</v>
       </c>
       <c r="L16">
-        <v>1.313100730709999</v>
+        <v>1.810644038246401</v>
       </c>
       <c r="M16">
-        <v>0.6227848949555937</v>
+        <v>0.4657125677056004</v>
       </c>
       <c r="N16">
-        <v>1.319019662849542</v>
+        <v>1.624158290124802</v>
       </c>
       <c r="O16">
-        <v>1.07489766933528</v>
+        <v>1.229739666560001</v>
       </c>
       <c r="P16">
-        <v>1.049457108736751</v>
+        <v>1.129111795353601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9939683121314244</v>
+      </c>
+      <c r="D17">
+        <v>0.9970575997167247</v>
+      </c>
+      <c r="E17">
+        <v>1.002331220851862</v>
+      </c>
+      <c r="F17">
+        <v>1.001797119982369</v>
+      </c>
+      <c r="G17">
+        <v>0.9939683121314244</v>
+      </c>
+      <c r="H17">
+        <v>0.9970575997167247</v>
+      </c>
+      <c r="I17">
+        <v>1.001043178177309</v>
+      </c>
+      <c r="J17">
+        <v>0.996215760568386</v>
+      </c>
+      <c r="K17">
+        <v>0.9975222838530294</v>
+      </c>
+      <c r="L17">
+        <v>1.003967955634248</v>
+      </c>
+      <c r="M17">
+        <v>0.9939844032356659</v>
+      </c>
+      <c r="N17">
+        <v>0.9996944102842931</v>
+      </c>
+      <c r="O17">
+        <v>0.9987885631705948</v>
+      </c>
+      <c r="P17">
+        <v>0.9992379288644189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.05369033779274</v>
+      </c>
+      <c r="D18">
+        <v>0.9275172338740534</v>
+      </c>
+      <c r="E18">
+        <v>1.006049078624849</v>
+      </c>
+      <c r="F18">
+        <v>0.9905109708452648</v>
+      </c>
+      <c r="G18">
+        <v>1.05369033779274</v>
+      </c>
+      <c r="H18">
+        <v>0.9275172338740534</v>
+      </c>
+      <c r="I18">
+        <v>1.023590840506376</v>
+      </c>
+      <c r="J18">
+        <v>0.9789766272337154</v>
+      </c>
+      <c r="K18">
+        <v>1.021520222524638</v>
+      </c>
+      <c r="L18">
+        <v>0.955555993863079</v>
+      </c>
+      <c r="M18">
+        <v>1.05369033779274</v>
+      </c>
+      <c r="N18">
+        <v>0.9667831562494512</v>
+      </c>
+      <c r="O18">
+        <v>0.9944419052842268</v>
+      </c>
+      <c r="P18">
+        <v>0.9946764131580894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.165874857223994</v>
+      </c>
+      <c r="D19">
+        <v>0.7800033960536521</v>
+      </c>
+      <c r="E19">
+        <v>1.07044871080576</v>
+      </c>
+      <c r="F19">
+        <v>0.9326359487981899</v>
+      </c>
+      <c r="G19">
+        <v>1.165874857223994</v>
+      </c>
+      <c r="H19">
+        <v>0.7800033960536521</v>
+      </c>
+      <c r="I19">
+        <v>1.100768323752033</v>
+      </c>
+      <c r="J19">
+        <v>0.9524202677733807</v>
+      </c>
+      <c r="K19">
+        <v>1.045340977701562</v>
+      </c>
+      <c r="L19">
+        <v>0.8366765500468677</v>
+      </c>
+      <c r="M19">
+        <v>1.165907208812522</v>
+      </c>
+      <c r="N19">
+        <v>0.925226053429706</v>
+      </c>
+      <c r="O19">
+        <v>0.987240728220399</v>
+      </c>
+      <c r="P19">
+        <v>0.98552112901943</v>
       </c>
     </row>
   </sheetData>
